--- a/output/inference_results/test_sheets/batch_001/test_sheet (8).xlsx
+++ b/output/inference_results/test_sheets/batch_001/test_sheet (8).xlsx
@@ -456,7 +456,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>82.0~100.0</t>
+          <t>82.0-100.0</t>
         </is>
       </c>
     </row>
@@ -473,7 +473,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>27.0~34.0</t>
+          <t>27.0-34.0</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -495,14 +495,14 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>316~354</t>
+          <t>316-354</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>18RBC分布宽度[RDW-SD]</t>
+          <t>RBC分布宽度</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -512,14 +512,14 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>37.0~50.0</t>
+          <t>37.0-50.0</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>19RBC分布宽度[RDW-CV]</t>
+          <t>RBC分布宽度</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -529,14 +529,14 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>11.6~14.8</t>
+          <t>11.6-14.8</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>20血小板计数</t>
+          <t>血小板计数</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -546,7 +546,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>125~350</t>
+          <t>125-350</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -558,17 +558,17 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>21血小板分布宽度</t>
+          <t>血小板分布宽度</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>11.20</t>
+          <t>11.2</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>9.00~17.00</t>
+          <t>9.00-17.00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -590,12 +590,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>9~13</t>
+          <t>9-13</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>fl</t>
+          <t>fL</t>
         </is>
       </c>
     </row>
@@ -612,14 +612,14 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.17~0.35</t>
+          <t>0.17-0.35</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>24大血小板比值</t>
+          <t>大血小板比值</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -629,7 +629,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>15~45</t>
+          <t>15-45</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">

--- a/output/inference_results/test_sheets/batch_001/test_sheet (8).xlsx
+++ b/output/inference_results/test_sheets/batch_001/test_sheet (8).xlsx
@@ -459,6 +459,11 @@
           <t>82.0-100.0</t>
         </is>
       </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>fL</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -498,6 +503,7 @@
           <t>316-354</t>
         </is>
       </c>
+      <c r="D4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -515,6 +521,7 @@
           <t>37.0-50.0</t>
         </is>
       </c>
+      <c r="D5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -532,6 +539,7 @@
           <t>11.6-14.8</t>
         </is>
       </c>
+      <c r="D6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -615,6 +623,7 @@
           <t>0.17-0.35</t>
         </is>
       </c>
+      <c r="D10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
